--- a/Inserting.xlsx
+++ b/Inserting.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Master1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MASTERSHEET" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Master2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Master" sheetId="4" state="visible" r:id="rId4"/>

--- a/Inserting.xlsx
+++ b/Inserting.xlsx
@@ -413,6 +413,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0085E51D"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -449,6 +450,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00e5691d"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
